--- a/CashFlow/ZBRA_cashflow.xlsx
+++ b/CashFlow/ZBRA_cashflow.xlsx
@@ -77,7 +77,7 @@
     <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="14.3"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="14.3"/>
     <col min="8" max="8" bestFit="1" customWidth="1" width="14.3"/>
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1951000000.0</v>
+        <v>-42000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1914000000.0</v>
+        <v>-21000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1446000000.0</v>
+        <v>-34000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>959000000.0</v>
+        <v>61000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>539000000.0</v>
+        <v>51000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>38000000.0</v>
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>47000000.0</v>
+        <v>2097000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>39000000.0</v>
+        <v>2048000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>24000000.0</v>
+        <v>1526000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-31000000.0</v>
+        <v>1031000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-16000000.0</v>
+        <v>490000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>-22000000.0</v>
